--- a/Assets/Resources/Table/terrainParamber.xlsx
+++ b/Assets/Resources/Table/terrainParamber.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -32,15 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mapSize</t>
-  </si>
-  <si>
-    <t>mapDistance</t>
-  </si>
-  <si>
-    <t>terrainEnumNum</t>
-  </si>
-  <si>
     <t>coinEnumNum</t>
   </si>
   <si>
@@ -70,6 +61,18 @@
   </si>
   <si>
     <t>60.0f</t>
+  </si>
+  <si>
+    <t>playerPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replySpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -118,8 +121,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -421,7 +452,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -448,13 +479,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -462,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -476,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -490,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -504,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -518,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -532,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -546,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>4</v>

--- a/Assets/Resources/Table/terrainParamber.xlsx
+++ b/Assets/Resources/Table/terrainParamber.xlsx
@@ -14,64 +14,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinEnumNum</t>
-  </si>
-  <si>
-    <t>coinCreateDenominator</t>
-  </si>
-  <si>
-    <t>coinCreateNumerator</t>
-  </si>
-  <si>
-    <t>coinZone</t>
-  </si>
-  <si>
-    <t>coinBuffer</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100.0f</t>
-  </si>
-  <si>
-    <t>60.0f</t>
-  </si>
-  <si>
-    <t>playerPosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replySpeed</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否回答出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在做什么项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用什么方法加载资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何处理，安卓和windows的差异处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再做热更新的时候AssetBundle有什么问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读的什么表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否懂csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有网络连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http协议和tcp/ip协议的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对scoket有什么了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何实现http的多线程下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何合并文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何在下载的同时上传怎么做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构怎么样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何实现链表，树，图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了C#,JAVA还会什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端会不会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,141 +478,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
